--- a/template.xlsx
+++ b/template.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jay-robotix\kernel_backend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D29DFB-D901-4931-8469-FB6899CD959F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -85,84 +94,109 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="24.0"/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="44.0"/>
+      <sz val="44"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="13">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -172,27 +206,38 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -207,77 +252,87 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-    </border>
-    <border>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="15" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="15" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -467,20 +522,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="51" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" customWidth="1"/>
+    <col min="6" max="6" width="22.6328125" customWidth="1"/>
+    <col min="7" max="7" width="22.36328125" customWidth="1"/>
+    <col min="8" max="8" width="32.08984375" customWidth="1"/>
+    <col min="9" max="9" width="26.08984375" customWidth="1"/>
+    <col min="10" max="10" width="30.1796875" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
+    <col min="15" max="15" width="27.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" ht="55" x14ac:dyDescent="1.05">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -497,133 +571,143 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="8" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="8" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="11" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="6"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="13"/>
     </row>
-    <row r="3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="16" t="s">
+    <row r="3" spans="1:15" ht="90" x14ac:dyDescent="0.6">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="18"/>
-      <c r="O3" s="19"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="21"/>
     </row>
-    <row r="4">
-      <c r="A4" s="20"/>
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:15" ht="180" x14ac:dyDescent="0.6">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="16" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="18"/>
-      <c r="O4" s="19"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="21"/>
     </row>
-    <row r="5">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:15" ht="120" x14ac:dyDescent="0.6">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="8" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="16"/>
     </row>
-    <row r="6">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:15" ht="60" x14ac:dyDescent="0.6">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="22" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="16" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="17" t="s">
+      <c r="L6" s="7"/>
+      <c r="M6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:O5"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="K3:L3"/>
@@ -636,15 +720,7 @@
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:O5"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>